--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Module Name</t>
   </si>
@@ -130,13 +130,6 @@
  * }</t>
   </si>
   <si>
-    <t>POST: /task/reserve
- * body {
- *      id: task_ID
- *      maidId: maid_ID
- * }</t>
-  </si>
-  <si>
     <t>Công việc quanh đây
 Filter/Search</t>
   </si>
@@ -150,19 +143,6 @@
     <t>Đang chờ
 Được giao
 Đang làm</t>
-  </si>
-  <si>
-    <t>GET: /maid/getAllTasks
- * params {
- *      id: Maid_ID
- *      process: process_ID
- * }
-processID: 
-- 000000000000000000000001 : Khởi tạo / On Create
-- 000000000000000000000002 : Đang chờ / Pending
-- 000000000000000000000003: Được giao / Reserved
-- 000000000000000000000004: Đang làm / On Doing
-- 000000000000000000000005: Hoàn thành / Done</t>
   </si>
   <si>
     <t>GET: /maid/getById
@@ -191,30 +171,8 @@
  * }</t>
   </si>
   <si>
-    <t>PUT: /maid/update
- * body {
- *      id: Maid_ID
- *      username: String
- *      email: String
- *      phone: String
- *      image: String
- *      addressName: String
- *      lat: Number
- *      lng: Number
- *      gender: Number
- * }</t>
-  </si>
-  <si>
     <t>Maid quanh đây
 Filter/Search</t>
-  </si>
-  <si>
-    <t>POST: /task/submit
- * body {
- *      id: task_ID
- *      ownerId: owner_ID
- *      maidId: maid_ID
- * }</t>
   </si>
   <si>
     <t>DS CV đã đăng
@@ -223,54 +181,7 @@
 DS CV đang làm</t>
   </si>
   <si>
-    <t>POST: /task/checkin
-* body {
- *      id: task_ID
- *      ownerId: owner_ID
- * }</t>
-  </si>
-  <si>
-    <t>POST: /task/checkout
-* body {
- *      id: task_ID
- *      ownerId: owner_ID
- * }</t>
-  </si>
-  <si>
-    <t>PUT: /owner/update
- * body {
- *      id: owner_ID
- *      username: String
- *      email: String
- *      phone: String
- *      image: String
- *      addressName: String
- *      lat: Number
- *      lng: Number
- *      gender: Number
- * }</t>
-  </si>
-  <si>
     <t>Đăng công việc</t>
-  </si>
-  <si>
-    <t>POST: /task/create
- * body {
- *      title: String
- *      package: package_ID
- *      work: work_ID
- *      description: String
- *      price: Number
- *      addressName: String
- *      lat: Number
- *      lng: Number
- *      startAt: Date
- *      endAt: Date
- *      hour: Number
- *      tools: Boolean
- *      owner: owner_ID
- *      process: process_ID
- * }</t>
   </si>
   <si>
     <t>Cập nhật công việc</t>
@@ -295,98 +206,22 @@
  * }</t>
   </si>
   <si>
-    <t>POST: /task/sendRequest
- * body {
- *      maidId: maid_ID
- *      title: String
- *      package: package_ID
- *      work: work_ID
- *      description: String
- *      price: Number
- *      addressName: String
- *      lat: Number
- *      lng: Number
- *      startAt: Date
- *      endAt: Date
- *      hour: Number
- *      tools: Boolean
- *      owner: owner_ID
- *      process: process_ID
- * }</t>
-  </si>
-  <si>
     <t>Hủy công việc</t>
   </si>
   <si>
-    <t>GET: /task/getAllTasks
- * params {
- *      id: owner_ID
- *      process: process_ID
- * }
-processID: 
-- 000000000000000000000001 : Khởi tạo / On Create
-- 000000000000000000000002 : Đang chờ / Pending
-- 000000000000000000000003: Được giao / Reserved
-- 000000000000000000000004: Đang làm / On Doing
-- 000000000000000000000005: Hoàn thành / Done
-- 000000000000000000000006: Yêu cầu trực tiếp / Direct Request</t>
-  </si>
-  <si>
     <t>Chấp nhận yêu cầu trực tiếp</t>
   </si>
   <si>
-    <t>POST: /task/acceptRequest
- * body {
- *      id: task_ID
- *      ownerId: owner_ID
- *      maidId: maid_ID
- * }</t>
-  </si>
-  <si>
     <t>Từ chối yêu cầu trực tiếp</t>
   </si>
   <si>
-    <t>POST: /task/denyRequest
- * body {
- *      id: task_ID
- *      ownerId: owner_ID
- *      maidId: maid_ID
- * }</t>
-  </si>
-  <si>
     <t>Xem yêu cầu trực tiếp</t>
   </si>
   <si>
     <t>DS CV bị hủy</t>
   </si>
   <si>
-    <t>GET: /maid/getAllDeniedTasks
- * params {
- *      maidId: maid_ID 
- * }</t>
-  </si>
-  <si>
     <t>DS CV đã làm</t>
-  </si>
-  <si>
-    <t>GET: /owner/getAllDeniedTasks
- * params {
- *      ownerId: owner_ID 
- * }</t>
-  </si>
-  <si>
-    <t>DELETE: /task/delete
- * body {
- *      id: task_ID
- *      ownerId: owner_ID
- * }</t>
-  </si>
-  <si>
-    <t>DELETE: /task/cancel
- * body {
- *      id: task_ID
- *      maidId: maid_ID
- * }</t>
   </si>
   <si>
     <t>Maid Project API's document</t>
@@ -402,25 +237,6 @@
  *      page?: Number
  *      sortBy?: "distance" | "price"
  *      sortType?: "asc" | "desc"
- * }</t>
-  </si>
-  <si>
-    <t>POST: /maid/getAllRequest
- * params {
- *      lat: Number
- *      lng: Number
- *      minDistance?: Number
- *      maxDistance?: Number
- *      limit?: Number
- *      page?: Number
- *      sortBy?: "distance" | "price"
- *      sortType?: "asc" | "desc"
- * }
- * body {
- *      title?: String
- *      process?: process_ID
- *      package?: [ package_ID ]
- *      work?: [ work_ID ]
  * }</t>
   </si>
   <si>
@@ -506,6 +322,246 @@
         <scheme val="minor"/>
       </rPr>
       <t>/task/getAll</t>
+    </r>
+  </si>
+  <si>
+    <t>POST: /auth/register
+ * body {
+ *      username: String
+ *      password: String
+ *      email: String
+ *      phone: String
+ *      image: String
+ *      adressName: String
+ *      lat: Number
+ *      lng: Number
+ *      gender: Number
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/sendRequest
+ * body {
+ *      maidId: maid_ID
+ *      title: String
+ *      package: package_ID
+ *      work: work_ID
+ *      description: String
+ *      price: Number
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      startAt: Date
+ *      endAt: Date
+ *      hour: Number
+ *      tools: Boolean
+ *      process: process_ID
+ * }</t>
+  </si>
+  <si>
+    <t>GET: /owner/getAllTasks
+ * params {
+ *      process: process_ID
+ * }
+processID: 
+- 000000000000000000000001 : Khởi tạo / On Create
+- 000000000000000000000002 : Đang chờ / Pending
+- 000000000000000000000003: Được giao / Reserved
+- 000000000000000000000004: Đang làm / On Doing
+- 000000000000000000000005: Hoàn thành / Done
+- 000000000000000000000006: Yêu cầu trực tiếp / Direct Request</t>
+  </si>
+  <si>
+    <t>POST: /task/submit
+ * body {
+ *      id: task_ID
+ *      maidId: maid_ID
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/checkin
+* body {
+ *      id: task_ID
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/checkout
+* body {
+ *      id: task_ID
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/create
+ * body {
+ *      title: String
+ *      package: package_ID
+ *      work: work_ID
+ *      description: String
+ *      price: Number
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      startAt: Date
+ *      endAt: Date
+ *      hour: Number
+ *      tools: Boolean
+ *      process: process_ID
+ * }</t>
+  </si>
+  <si>
+    <t>DELETE: /task/delete
+ * body {
+ *      id: task_ID
+ * }</t>
+  </si>
+  <si>
+    <t>GET: /task/getAllTasks
+ * params {
+ *      process: process_ID
+ * }
+processID: 
+- 000000000000000000000001 : Khởi tạo / On Create
+- 000000000000000000000002 : Đang chờ / Pending
+- 000000000000000000000003: Được giao / Reserved
+- 000000000000000000000004: Đang làm / On Doing
+- 000000000000000000000005: Hoàn thành / Done
+- 000000000000000000000006: Yêu cầu trực tiếp / Direct Request</t>
+  </si>
+  <si>
+    <t>GET: /owner/getAllDeniedTasks</t>
+  </si>
+  <si>
+    <t>PUT: /owner/update
+ * body {
+ *      username: String
+ *      email: String
+ *      phone: String
+ *      image: String
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      gender: Number
+ * }</t>
+  </si>
+  <si>
+    <t>Chưa hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>POST: /task/reserve
+ * body {
+ *      id: task_ID
+ * }</t>
+  </si>
+  <si>
+    <t>GET: /maid/getAllTasks
+ * params {
+ *      process: process_ID
+ * }
+processID: 
+- 000000000000000000000001 : Khởi tạo / On Create
+- 000000000000000000000002 : Đang chờ / Pending
+- 000000000000000000000003: Được giao / Reserved
+- 000000000000000000000004: Đang làm / On Doing
+- 000000000000000000000005: Hoàn thành / Done</t>
+  </si>
+  <si>
+    <t>POST: /maid/getAllRequest
+ * body {
+ *      lat: Number
+ *      lng: Number
+ *      minDistance?: Number
+ *      maxDistance?: Number
+ *      limit?: Number
+ *      page?: Number
+ *      sortBy?: "distance" | "price"
+ *      sortType?: "asc" | "desc"
+ *      title?: String
+ *      process?: process_ID
+ *      package?: [ package_ID ]
+ *      work?: [ work_ID ]
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/acceptRequest
+ * body {
+ *      id: task_ID
+ *      ownerId: owner_ID
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/denyRequest
+ * body {
+ *      id: task_ID
+ *      ownerId: owner_ID
+ * }</t>
+  </si>
+  <si>
+    <t>DELETE: /task/cancel
+ * body {
+ *      id: task_ID
+ * }</t>
+  </si>
+  <si>
+    <t>GET: /maid/getAllDeniedTasks</t>
+  </si>
+  <si>
+    <t>PUT: /maid/update
+ * body {
+ *      username: String
+ *      email: String
+ *      phone: String
+ *      image: String
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      gender: Number
+ * }</t>
+  </si>
+  <si>
+    <t>Add headers to all APIs (except API Login and Register) to check Authentication</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">key: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hbbgvauth
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> token</t>
     </r>
   </si>
 </sst>
@@ -571,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +664,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -636,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,6 +760,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,27 +1050,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="22" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1105,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
@@ -1043,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -1060,13 +1144,13 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="3:6" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="270" x14ac:dyDescent="0.25">
       <c r="C5" s="24"/>
       <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -1076,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1085,20 +1169,20 @@
         <v>8</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="3:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1112,53 +1196,53 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C11" s="25"/>
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="3:6" ht="270" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" ht="255" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
       <c r="D12" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="3:6" ht="270" x14ac:dyDescent="0.25">
       <c r="C13" s="25"/>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C14" s="25"/>
       <c r="D14" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1175,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -1200,13 +1284,13 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1250,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -1260,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1270,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -1282,25 +1366,27 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" ht="195" x14ac:dyDescent="0.25">
       <c r="C28" s="25"/>
       <c r="D28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="3:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" ht="180" x14ac:dyDescent="0.25">
       <c r="C29" s="25"/>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="E29" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="25"/>
@@ -1334,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1429,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
@@ -1366,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
@@ -1385,13 +1471,13 @@
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="24"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
@@ -1402,20 +1488,20 @@
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="180" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
@@ -1431,51 +1517,51 @@
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="240" x14ac:dyDescent="0.25">
       <c r="C10" s="25"/>
       <c r="D10" s="17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="3:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C11" s="25"/>
       <c r="D11" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
       <c r="D12" s="17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C13" s="25"/>
       <c r="D13" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="180" x14ac:dyDescent="0.25">
       <c r="C14" s="24" t="s">
         <v>9</v>
       </c>
@@ -1483,18 +1569,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" s="24"/>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="6"/>
@@ -1565,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
@@ -1576,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
@@ -1587,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
@@ -1607,20 +1693,22 @@
         <v>21</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="180" x14ac:dyDescent="0.25">
       <c r="C27" s="25"/>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="10"/>
+      <c r="E27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">

--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doma Umaru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DuyDuong/Desktop/HBB/GV24/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8340"/>
+    <workbookView xWindow="14620" yWindow="720" windowWidth="28800" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Owner" sheetId="2" r:id="rId2"/>
     <sheet name="Maid" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -323,20 +329,6 @@
       </rPr>
       <t>/task/getAll</t>
     </r>
-  </si>
-  <si>
-    <t>POST: /auth/register
- * body {
- *      username: String
- *      password: String
- *      email: String
- *      phone: String
- *      image: String
- *      adressName: String
- *      lat: Number
- *      lng: Number
- *      gender: Number
- * }</t>
   </si>
   <si>
     <t>POST: /task/sendRequest
@@ -563,6 +555,20 @@
       </rPr>
       <t xml:space="preserve"> token</t>
     </r>
+  </si>
+  <si>
+    <t>POST: /auth/register
+ * body {
+ *      username: String
+ *      password: String
+ *      email: String
+ *      phone: String
+ *      image: String
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      gender: Number
+ * }</t>
   </si>
 </sst>
 </file>
@@ -681,16 +687,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,20 +761,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,9 +839,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -868,9 +874,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1052,38 +1058,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="26" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="C12" s="26" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1096,19 +1102,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1128,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="3:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1134,8 +1140,8 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C4" s="24"/>
+    <row r="4" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C4" s="27"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1144,18 +1150,18 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="3:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
+    <row r="5" spans="3:6" ht="270" x14ac:dyDescent="0.2">
+      <c r="C5" s="27"/>
       <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="24"/>
+    <row r="6" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C6" s="27"/>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1164,30 +1170,30 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="3:6" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
+    <row r="7" spans="3:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C8" s="25"/>
+    <row r="8" spans="3:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="C8" s="28"/>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" s="25"/>
+    <row r="9" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1196,38 +1202,38 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
+    <row r="10" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C10" s="28"/>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+    <row r="11" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C11" s="28"/>
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="3:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
+    <row r="12" spans="3:6" ht="255" x14ac:dyDescent="0.2">
+      <c r="C12" s="28"/>
       <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="3:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
+    <row r="13" spans="3:6" ht="270" x14ac:dyDescent="0.2">
+      <c r="C13" s="28"/>
       <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
@@ -1236,46 +1242,46 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C14" s="25"/>
+    <row r="14" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C14" s="28"/>
       <c r="D14" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="25"/>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="28"/>
       <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="3:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="24" t="s">
+    <row r="16" spans="3:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C18" s="24"/>
+    <row r="18" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1284,34 +1290,34 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="27"/>
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="24"/>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="27"/>
       <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="24"/>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="27"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1320,16 +1326,16 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="28"/>
       <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
+    <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.2">
+      <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
@@ -1338,8 +1344,8 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="3:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
+    <row r="25" spans="3:6" ht="90" x14ac:dyDescent="0.2">
+      <c r="C25" s="28"/>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1348,8 +1354,8 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
         <v>19</v>
       </c>
@@ -1358,46 +1364,46 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
       <c r="D27" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="C28" s="25"/>
+    <row r="28" spans="3:6" ht="195" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
       <c r="D28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="3:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="C29" s="25"/>
-      <c r="D29" s="26" t="s">
+    <row r="29" spans="3:6" ht="180" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
+      <c r="D29" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="25"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="28"/>
       <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="28"/>
       <c r="D31" s="5" t="s">
         <v>24</v>
       </c>
@@ -1424,15 +1430,15 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1447,8 +1453,8 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="3:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
+    <row r="4" spans="3:11" ht="240" x14ac:dyDescent="0.2">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1460,8 +1466,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
+    <row r="5" spans="3:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="C5" s="27"/>
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1471,19 +1477,19 @@
       <c r="F5" s="10"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="24"/>
+    <row r="6" spans="3:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="C6" s="27"/>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C7" s="24"/>
+    <row r="7" spans="3:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="C7" s="27"/>
       <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1493,21 +1499,21 @@
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="3:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="3:11" ht="180" x14ac:dyDescent="0.2">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C9" s="25"/>
+    <row r="9" spans="3:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1517,78 +1523,78 @@
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="3:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
+    <row r="10" spans="3:11" ht="240" x14ac:dyDescent="0.2">
+      <c r="C10" s="28"/>
       <c r="D10" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
+    <row r="11" spans="3:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="C11" s="28"/>
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
+    <row r="12" spans="3:11" ht="90" x14ac:dyDescent="0.2">
+      <c r="C12" s="28"/>
       <c r="D12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
+    <row r="13" spans="3:11" ht="75" x14ac:dyDescent="0.2">
+      <c r="C13" s="28"/>
       <c r="D13" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="3:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="C14" s="24" t="s">
+    <row r="14" spans="3:11" ht="180" x14ac:dyDescent="0.2">
+      <c r="C14" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="24"/>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="27"/>
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="6"/>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="24"/>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="27"/>
       <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
@@ -1596,8 +1602,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
+    <row r="17" spans="3:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
@@ -1607,8 +1613,8 @@
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="24"/>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="27"/>
       <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1616,8 +1622,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="27"/>
       <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1625,8 +1631,8 @@
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1636,8 +1642,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="25"/>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="28"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
@@ -1645,8 +1651,8 @@
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="3:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
+    <row r="22" spans="3:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="C22" s="28"/>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1656,8 +1662,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="3:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
+    <row r="23" spans="3:7" ht="90" x14ac:dyDescent="0.2">
+      <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
@@ -1667,8 +1673,8 @@
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="28"/>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1678,8 +1684,8 @@
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="28"/>
       <c r="D25" s="5" t="s">
         <v>20</v>
       </c>
@@ -1687,8 +1693,8 @@
       <c r="F25" s="10"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="3:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
+    <row r="26" spans="3:7" ht="180" x14ac:dyDescent="0.2">
+      <c r="C26" s="28"/>
       <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1698,21 +1704,21 @@
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="3:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+    <row r="27" spans="3:7" ht="180" x14ac:dyDescent="0.2">
+      <c r="C27" s="28"/>
+      <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>67</v>
+      <c r="E27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="25"/>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="28"/>
       <c r="D28" s="5" t="s">
         <v>23</v>
       </c>
@@ -1720,8 +1726,8 @@
       <c r="F28" s="2"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="25"/>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="28"/>
       <c r="D29" s="5" t="s">
         <v>24</v>
       </c>

--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="720" windowWidth="28800" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="9860" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -379,24 +379,6 @@
     <t>POST: /task/checkout
 * body {
  *      id: task_ID
- * }</t>
-  </si>
-  <si>
-    <t>POST: /task/create
- * body {
- *      title: String
- *      package: package_ID
- *      work: work_ID
- *      description: String
- *      price: Number
- *      addressName: String
- *      lat: Number
- *      lng: Number
- *      startAt: Date
- *      endAt: Date
- *      hour: Number
- *      tools: Boolean
- *      process: process_ID
  * }</t>
   </si>
   <si>
@@ -568,6 +550,23 @@
  *      lat: Number
  *      lng: Number
  *      gender: Number
+ * }</t>
+  </si>
+  <si>
+    <t>POST: /task/create
+ * body {
+ *      title: String
+ *      package: package_ID
+ *      work: work_ID
+ *      description: String
+ *      price: Number
+ *      addressName: String
+ *      lat: Number
+ *      lng: Number
+ *      startAt: Date
+ *      endAt: Date
+ *      hour: Number
+ *      tools: Boolean
  * }</t>
   </si>
 </sst>
@@ -1084,12 +1083,12 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="C12" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1102,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1222,13 +1221,13 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="3:6" ht="255" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:6" ht="240" x14ac:dyDescent="0.2">
       <c r="C12" s="28"/>
       <c r="D12" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -1248,7 +1247,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1268,7 +1267,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -1296,7 +1295,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1378,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -1388,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="E29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
@@ -1483,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
@@ -1507,7 +1506,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
@@ -1529,7 +1528,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="6"/>
@@ -1540,7 +1539,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
@@ -1551,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="6"/>
@@ -1562,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="6"/>
@@ -1575,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
@@ -1586,7 +1585,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="6"/>
@@ -1710,10 +1709,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="6"/>
     </row>

--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="15740" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="29" spans="3:6" ht="180" x14ac:dyDescent="0.2">
       <c r="C29" s="28"/>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="17" t="s">
         <v>65</v>
       </c>
     </row>

--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DuyDuong/Desktop/HBB/GV24/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhphong/Desktop/HBBs/GV24/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/doc/MaidProject-API.xlsx
+++ b/doc/MaidProject-API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="-1220" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
